--- a/Data/sgRNA/Figure5/N100N_sequence_result/N100N_plot.xlsx
+++ b/Data/sgRNA/Figure5/N100N_sequence_result/N100N_plot.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="529" uniqueCount="43">
   <si>
     <t>base_name</t>
   </si>
@@ -50,13 +50,16 @@
     <t>position</t>
   </si>
   <si>
-    <t>(UUGCC)</t>
+    <t>G</t>
   </si>
   <si>
     <t>3'</t>
   </si>
   <si>
-    <t>G</t>
+    <t>C</t>
+  </si>
+  <si>
+    <t>(UUGCC)</t>
   </si>
   <si>
     <t>U</t>
@@ -65,13 +68,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
     <t>(GGCA)</t>
   </si>
   <si>
     <t>5'</t>
+  </si>
+  <si>
+    <t>Intact</t>
   </si>
   <si>
     <t>native 3'(10-57)</t>
@@ -162,11 +165,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.000"/>
+    <numFmt numFmtId="179" formatCode="#0.####"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -651,19 +656,19 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,7 +677,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -796,10 +801,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1153,8 +1167,8 @@
   <sheetPr/>
   <dimension ref="A1:L305"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1192,41 +1206,40 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>1505.22714169319</v>
-      </c>
-      <c r="C2">
-        <v>1255364.18</v>
-      </c>
-      <c r="D2">
-        <v>0.720963666407267</v>
+      <c r="B2" s="2">
+        <v>895.143344268784</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1158034.59</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.662274350293477</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>1850.27356978768</v>
-      </c>
-      <c r="C3">
-        <v>2741775.55</v>
-      </c>
-      <c r="D3">
-        <v>0.720963666407267</v>
-      </c>
-      <c r="E3" t="str">
-        <f>E2</f>
-        <v>3'</v>
+      <c r="B3" s="2">
+        <v>1200.18444508846</v>
+      </c>
+      <c r="C3" s="3">
+        <v>822526.47</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.689360175100962</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,114 +1247,113 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>2156.29948050156</v>
+        <v>1505.22714169319</v>
       </c>
       <c r="C4">
-        <v>1499877.72</v>
+        <v>1255364.18</v>
       </c>
       <c r="D4">
-        <v>0.75256482518514</v>
-      </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E35" si="0">E3</f>
-        <v>3'</v>
+        <v>0.720963666407267</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
+        <v>1850.27356978768</v>
+      </c>
+      <c r="C5">
+        <v>2741775.55</v>
+      </c>
+      <c r="D5">
+        <v>0.720963666407267</v>
+      </c>
+      <c r="E5" t="str">
+        <f>E4</f>
+        <v>3'</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>2156.29948050156</v>
+      </c>
+      <c r="C6">
+        <v>1499877.72</v>
+      </c>
+      <c r="D6">
+        <v>0.75256482518514</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ref="E6:E37" si="0">E5</f>
+        <v>3'</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>2501.34755923852</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>754846.23</v>
       </c>
-      <c r="D5">
+      <c r="D7">
         <v>0.75256482518514</v>
-      </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>3'</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>3'</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6">
-      <c r="B7">
-        <v>3151.43561388501</v>
-      </c>
-      <c r="C7">
-        <v>913462.43</v>
-      </c>
-      <c r="D7">
-        <v>0.869941142765681</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>3457.45935444331</v>
-      </c>
-      <c r="C8">
-        <v>966341.01</v>
-      </c>
-      <c r="D8">
-        <v>0.960227415529887</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
       <c r="B9">
-        <v>3802.5098170258</v>
+        <v>3151.43561388501</v>
       </c>
       <c r="C9">
-        <v>2268247.06</v>
+        <v>913462.43</v>
       </c>
       <c r="D9">
-        <v>2.58088609930674</v>
+        <v>0.869941142765681</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F9">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1353,41 +1365,41 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>4131.56255391866</v>
+        <v>3457.45935444331</v>
       </c>
       <c r="C10">
-        <v>2981376.54</v>
+        <v>966341.01</v>
       </c>
       <c r="D10">
-        <v>5.7004682993571</v>
+        <v>0.960227415529887</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>4476.61107037871</v>
+        <v>3802.5098170258</v>
       </c>
       <c r="C11">
-        <v>3717979.45</v>
+        <v>2268247.06</v>
       </c>
       <c r="D11">
-        <v>6.2693220571359</v>
+        <v>2.58088609930674</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F11">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1395,104 +1407,104 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4781.65147297701</v>
+        <v>4131.56255391866</v>
       </c>
       <c r="C12">
-        <v>6962762.41</v>
+        <v>2981376.54</v>
       </c>
       <c r="D12">
-        <v>6.869802490441</v>
+        <v>5.7004682993571</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F12">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>5086.69350961885</v>
+        <v>4476.61107037871</v>
       </c>
       <c r="C13">
-        <v>4254447.01</v>
+        <v>3717979.45</v>
       </c>
       <c r="D13">
-        <v>7.56056104259491</v>
+        <v>6.2693220571359</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F13">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>5415.74525981049</v>
+        <v>4781.65147297701</v>
       </c>
       <c r="C14">
-        <v>7032119.18</v>
+        <v>6962762.41</v>
       </c>
       <c r="D14">
-        <v>8.78864069935481</v>
+        <v>6.869802490441</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F14">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15">
-        <v>5720.787082709</v>
+        <v>5086.69350961885</v>
       </c>
       <c r="C15">
-        <v>3379513.32</v>
+        <v>4254447.01</v>
       </c>
       <c r="D15">
-        <v>9.21308013356527</v>
+        <v>7.56056104259491</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F15">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>6065.83514494977</v>
+        <v>5415.74525981049</v>
       </c>
       <c r="C16">
-        <v>2724026.51</v>
+        <v>7032119.18</v>
       </c>
       <c r="D16">
-        <v>10.0800114170392</v>
+        <v>8.78864069935481</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F16">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1500,62 +1512,62 @@
         <v>8</v>
       </c>
       <c r="B17">
-        <v>6410.88182188263</v>
+        <v>5720.787082709</v>
       </c>
       <c r="C17">
-        <v>3283615.73</v>
+        <v>3379513.32</v>
       </c>
       <c r="D17">
-        <v>10.4999464408239</v>
+        <v>9.21308013356527</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F17">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>6716.90695347615</v>
+        <v>6065.83514494977</v>
       </c>
       <c r="C18">
-        <v>2480598.67</v>
+        <v>2724026.51</v>
       </c>
       <c r="D18">
-        <v>10.8025004422347</v>
+        <v>10.0800114170392</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F18">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>7061.95402074302</v>
+        <v>6410.88182188263</v>
       </c>
       <c r="C19">
-        <v>3184156.24</v>
+        <v>3283615.73</v>
       </c>
       <c r="D19">
-        <v>11.2179445997556</v>
+        <v>10.4999464408239</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F19">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1563,188 +1575,188 @@
         <v>10</v>
       </c>
       <c r="B20">
-        <v>7391.00554817822</v>
+        <v>6716.90695347615</v>
       </c>
       <c r="C20">
-        <v>4455046.61</v>
+        <v>2480598.67</v>
       </c>
       <c r="D20">
-        <v>11.9676084673087</v>
+        <v>10.8025004422347</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>7720.0556766764</v>
+        <v>7061.95402074302</v>
       </c>
       <c r="C21">
-        <v>3972561.22</v>
+        <v>3184156.24</v>
       </c>
       <c r="D21">
-        <v>12.4824465846697</v>
+        <v>11.2179445997556</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F21">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B22">
-        <v>8049.10700583822</v>
+        <v>7391.00554817822</v>
       </c>
       <c r="C22">
-        <v>3811306.78</v>
+        <v>4455046.61</v>
       </c>
       <c r="D22">
-        <v>12.8979915574869</v>
+        <v>11.9676084673087</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F22">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>8378.15510102445</v>
+        <v>7720.0556766764</v>
       </c>
       <c r="C23">
-        <v>4065813.02</v>
+        <v>3972561.22</v>
       </c>
       <c r="D23">
-        <v>13.2322630917708</v>
+        <v>12.4824465846697</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F23">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
-        <v>8707.20410630778</v>
+        <v>8049.10700583822</v>
       </c>
       <c r="C24">
-        <v>3374145.33</v>
+        <v>3811306.78</v>
       </c>
       <c r="D24">
-        <v>13.5575579321067</v>
+        <v>12.8979915574869</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F24">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B25">
-        <v>9052.24839872956</v>
+        <v>8378.15510102445</v>
       </c>
       <c r="C25">
-        <v>3453866.97</v>
+        <v>4065813.02</v>
       </c>
       <c r="D25">
-        <v>13.5575579321067</v>
+        <v>13.2322630917708</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F25">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B26">
-        <v>9358.27878063925</v>
+        <v>8707.20410630778</v>
       </c>
       <c r="C26">
-        <v>3007774.13</v>
+        <v>3374145.33</v>
       </c>
       <c r="D26">
-        <v>13.6795522745132</v>
+        <v>13.5575579321067</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F26">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>9664.3105902631</v>
+        <v>9052.24839872956</v>
       </c>
       <c r="C27">
-        <v>3260955.12</v>
+        <v>3453866.97</v>
       </c>
       <c r="D27">
-        <v>13.8918964818796</v>
+        <v>13.5575579321067</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28">
-        <v>9969.35391779908</v>
+        <v>9358.27878063925</v>
       </c>
       <c r="C28">
-        <v>2504274.84</v>
+        <v>3007774.13</v>
       </c>
       <c r="D28">
-        <v>14.0726083333969</v>
+        <v>13.6795522745132</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F28">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1752,41 +1764,41 @@
         <v>10</v>
       </c>
       <c r="B29">
-        <v>10298.4094355714</v>
+        <v>9664.3105902631</v>
       </c>
       <c r="C29">
-        <v>3228728.78</v>
+        <v>3260955.12</v>
       </c>
       <c r="D29">
-        <v>14.5198959564845</v>
+        <v>13.8918964818796</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F29">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>10627.4556082337</v>
+        <v>9969.35391779908</v>
       </c>
       <c r="C30">
-        <v>3756887.15</v>
+        <v>2504274.84</v>
       </c>
       <c r="D30">
-        <v>14.8226956005573</v>
+        <v>14.0726083333969</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F30">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1794,31 +1806,31 @@
         <v>11</v>
       </c>
       <c r="B31">
-        <v>10932.5058035342</v>
+        <v>10298.4094355714</v>
       </c>
       <c r="C31">
-        <v>2380352.32</v>
+        <v>3228728.78</v>
       </c>
       <c r="D31">
-        <v>14.7322878495534</v>
+        <v>14.5198959564845</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F31">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B32">
-        <v>11238.5304445354</v>
+        <v>10627.4556082337</v>
       </c>
       <c r="C32">
-        <v>1880576.81</v>
+        <v>3756887.15</v>
       </c>
       <c r="D32">
         <v>14.8226956005573</v>
@@ -1828,154 +1840,154 @@
         <v>3'</v>
       </c>
       <c r="F32">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B33">
-        <v>11567.583608482</v>
+        <v>10932.5058035342</v>
       </c>
       <c r="C33">
-        <v>3238561.49</v>
+        <v>2380352.32</v>
       </c>
       <c r="D33">
-        <v>15.1797854001999</v>
+        <v>14.7322878495534</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F33">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34">
-        <v>11873.603056273</v>
+        <v>11238.5304445354</v>
       </c>
       <c r="C34">
-        <v>2045869.33</v>
+        <v>1880576.81</v>
       </c>
       <c r="D34">
-        <v>15.1481336489995</v>
+        <v>14.8226956005573</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F34">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B35">
-        <v>12179.6311737614</v>
+        <v>11567.583608482</v>
       </c>
       <c r="C35">
-        <v>1870819.61</v>
+        <v>3238561.49</v>
       </c>
       <c r="D35">
-        <v>15.2385508155505</v>
+        <v>15.1797854001999</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F35">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36">
-        <v>12524.6831161055</v>
+        <v>11873.603056273</v>
       </c>
       <c r="C36">
-        <v>2527970.69</v>
+        <v>2045869.33</v>
       </c>
       <c r="D36">
-        <v>15.3289738670667</v>
+        <v>15.1481336489995</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" ref="E36:E67" si="1">E35</f>
+        <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F36">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37">
-        <v>12829.7168563275</v>
+        <v>12179.6311737614</v>
       </c>
       <c r="C37">
-        <v>2268671.16</v>
+        <v>1870819.61</v>
       </c>
       <c r="D37">
-        <v>15.3922626332124</v>
+        <v>15.2385508155505</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3'</v>
       </c>
       <c r="F37">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>13134.7615879371</v>
+        <v>12524.6831161055</v>
       </c>
       <c r="C38">
-        <v>1687965.41</v>
+        <v>2527970.69</v>
       </c>
       <c r="D38">
-        <v>15.4826778665861</v>
+        <v>15.3289738670667</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E38:E71" si="1">E37</f>
         <v>3'</v>
       </c>
       <c r="F38">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>13440.7868363556</v>
+        <v>12829.7168563275</v>
       </c>
       <c r="C39">
-        <v>1196772.26</v>
+        <v>2268671.16</v>
       </c>
       <c r="D39">
-        <v>15.5730952755292</v>
+        <v>15.3922626332124</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F39">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1983,20 +1995,20 @@
         <v>8</v>
       </c>
       <c r="B40">
-        <v>13785.8319667339</v>
+        <v>13134.7615879371</v>
       </c>
       <c r="C40">
-        <v>1417153.71</v>
+        <v>1687965.41</v>
       </c>
       <c r="D40">
-        <v>15.6589917754809</v>
+        <v>15.4826778665861</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F40">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2004,41 +2016,41 @@
         <v>10</v>
       </c>
       <c r="B41">
-        <v>14114.8812454384</v>
+        <v>13440.7868363556</v>
       </c>
       <c r="C41">
-        <v>1778673.12</v>
+        <v>1196772.26</v>
       </c>
       <c r="D41">
-        <v>15.8714928900878</v>
+        <v>15.5730952755292</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F41">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>14420.9092963267</v>
+        <v>13785.8319667339</v>
       </c>
       <c r="C42">
-        <v>1377847.57</v>
+        <v>1417153.71</v>
       </c>
       <c r="D42">
-        <v>15.8398406084061</v>
+        <v>15.6589917754809</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F42">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2046,41 +2058,41 @@
         <v>11</v>
       </c>
       <c r="B43">
-        <v>14725.9520191691</v>
+        <v>14114.8812454384</v>
       </c>
       <c r="C43">
-        <v>1102479.25</v>
+        <v>1778673.12</v>
       </c>
       <c r="D43">
-        <v>15.8986219004472</v>
+        <v>15.8714928900878</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F43">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B44">
-        <v>15070.9966872543</v>
+        <v>14420.9092963267</v>
       </c>
       <c r="C44">
-        <v>1026515.1</v>
+        <v>1377847.57</v>
       </c>
       <c r="D44">
-        <v>15.9619229749521</v>
+        <v>15.8398406084061</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F44">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2088,104 +2100,104 @@
         <v>8</v>
       </c>
       <c r="B45">
-        <v>15416.0404273514</v>
+        <v>14725.9520191691</v>
       </c>
       <c r="C45">
-        <v>1056310.73</v>
+        <v>1102479.25</v>
       </c>
       <c r="D45">
-        <v>16.0523638482571</v>
+        <v>15.8986219004472</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F45">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B46">
-        <v>15745.1013055427</v>
+        <v>15070.9966872543</v>
       </c>
       <c r="C46">
-        <v>1169982.16</v>
+        <v>1026515.1</v>
       </c>
       <c r="D46">
-        <v>16.233236324358</v>
+        <v>15.9619229749521</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F46">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B47">
-        <v>16074.1557465435</v>
+        <v>15416.0404273514</v>
       </c>
       <c r="C47">
-        <v>1209981.76</v>
+        <v>1056310.73</v>
       </c>
       <c r="D47">
-        <v>16.377977033027</v>
+        <v>16.0523638482571</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F47">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B48">
-        <v>16380.1711006276</v>
+        <v>15745.1013055427</v>
       </c>
       <c r="C48">
-        <v>731630.42</v>
+        <v>1169982.16</v>
       </c>
       <c r="D48">
-        <v>16.3191607331912</v>
+        <v>16.233236324358</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F48">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
-        <v>16709.2401177185</v>
+        <v>16074.1557465435</v>
       </c>
       <c r="C49">
-        <v>1098708.5</v>
+        <v>1209981.76</v>
       </c>
       <c r="D49">
-        <v>16.4684634502411</v>
+        <v>16.377977033027</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F49">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2193,94 +2205,94 @@
         <v>10</v>
       </c>
       <c r="B50">
-        <v>17038.2939934503</v>
+        <v>16380.1711006276</v>
       </c>
       <c r="C50">
-        <v>996309.86</v>
+        <v>731630.42</v>
       </c>
       <c r="D50">
-        <v>16.6222967838923</v>
+        <v>16.3191607331912</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F50">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
-        <v>17367.3377740445</v>
+        <v>16709.2401177185</v>
       </c>
       <c r="C51">
-        <v>999791.31</v>
+        <v>1098708.5</v>
       </c>
       <c r="D51">
-        <v>16.7127896324476</v>
+        <v>16.4684634502411</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F51">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
-        <v>17696.3970948532</v>
+        <v>17038.2939934503</v>
       </c>
       <c r="C52">
-        <v>1032483.16</v>
+        <v>996309.86</v>
       </c>
       <c r="D52">
-        <v>16.8032934323629</v>
+        <v>16.6222967838923</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F52">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B53">
-        <v>18002.3994162994</v>
+        <v>17367.3377740445</v>
       </c>
       <c r="C53">
-        <v>652061.87</v>
+        <v>999791.31</v>
       </c>
       <c r="D53">
-        <v>16.767093258667</v>
+        <v>16.7127896324476</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F53">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B54">
-        <v>18308.4539532451</v>
+        <v>17696.3970948532</v>
       </c>
       <c r="C54">
-        <v>552130.36</v>
+        <v>1032483.16</v>
       </c>
       <c r="D54">
         <v>16.8032934323629</v>
@@ -2290,160 +2302,160 @@
         <v>3'</v>
       </c>
       <c r="F54">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55">
+        <v>18002.3994162994</v>
+      </c>
+      <c r="C55">
+        <v>652061.87</v>
+      </c>
+      <c r="D55">
+        <v>16.767093258667</v>
+      </c>
       <c r="E55" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F55">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>10</v>
+      </c>
       <c r="B56">
-        <v>18982.54231982</v>
+        <v>18308.4539532451</v>
       </c>
       <c r="C56">
-        <v>695110.98</v>
+        <v>552130.36</v>
       </c>
       <c r="D56">
-        <v>16.9797997828007</v>
+        <v>16.8032934323629</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F56">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>10</v>
-      </c>
-      <c r="B57">
-        <v>19311.5971189505</v>
-      </c>
-      <c r="C57">
-        <v>803435.35</v>
-      </c>
-      <c r="D57">
-        <v>17.1020295754751</v>
-      </c>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6">
       <c r="E57" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F57">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>11</v>
-      </c>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6">
       <c r="B58">
-        <v>19616.6392019269</v>
+        <v>18982.54231982</v>
       </c>
       <c r="C58">
-        <v>436097.6</v>
+        <v>695110.98</v>
       </c>
       <c r="D58">
-        <v>17.0386397158782</v>
+        <v>16.9797997828007</v>
       </c>
       <c r="E58" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F58">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B59">
-        <v>19961.6878592127</v>
+        <v>19311.5971189505</v>
       </c>
       <c r="C59">
-        <v>440488.71</v>
+        <v>803435.35</v>
       </c>
       <c r="D59">
-        <v>17.0703371898015</v>
+        <v>17.1020295754751</v>
       </c>
       <c r="E59" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F59">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B60">
-        <v>20290.7287192207</v>
+        <v>19616.6392019269</v>
       </c>
       <c r="C60">
-        <v>588553.06</v>
+        <v>436097.6</v>
       </c>
       <c r="D60">
-        <v>17.2197548842112</v>
+        <v>17.0386397158782</v>
       </c>
       <c r="E60" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F60">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B61">
-        <v>20596.753534117</v>
+        <v>19961.6878592127</v>
       </c>
       <c r="C61">
-        <v>385232.2</v>
+        <v>440488.71</v>
       </c>
       <c r="D61">
-        <v>17.1925830081781</v>
+        <v>17.0703371898015</v>
       </c>
       <c r="E61" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F61">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B62">
-        <v>20925.8273107739</v>
+        <v>20290.7287192207</v>
       </c>
       <c r="C62">
-        <v>572080.71</v>
+        <v>588553.06</v>
       </c>
       <c r="D62">
-        <v>17.3103569006602</v>
+        <v>17.2197548842112</v>
       </c>
       <c r="E62" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F62">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2451,104 +2463,104 @@
         <v>10</v>
       </c>
       <c r="B63">
-        <v>21254.8573916871</v>
+        <v>20596.753534117</v>
       </c>
       <c r="C63">
-        <v>457340.23</v>
+        <v>385232.2</v>
       </c>
       <c r="D63">
-        <v>17.3692405994415</v>
+        <v>17.1925830081781</v>
       </c>
       <c r="E63" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F63">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B64">
-        <v>21583.9133424913</v>
+        <v>20925.8273107739</v>
       </c>
       <c r="C64">
-        <v>423577.45</v>
+        <v>572080.71</v>
       </c>
       <c r="D64">
-        <v>17.4598748759111</v>
+        <v>17.3103569006602</v>
       </c>
       <c r="E64" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F64">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B65">
-        <v>21928.9746105746</v>
+        <v>21254.8573916871</v>
       </c>
       <c r="C65">
-        <v>351444.4</v>
+        <v>457340.23</v>
       </c>
       <c r="D65">
-        <v>17.4281518077532</v>
+        <v>17.3692405994415</v>
       </c>
       <c r="E65" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F65">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66">
-        <v>22258.0253526228</v>
+        <v>21583.9133424913</v>
       </c>
       <c r="C66">
-        <v>419404.92</v>
+        <v>423577.45</v>
       </c>
       <c r="D66">
-        <v>17.5187710419973</v>
+        <v>17.4598748759111</v>
       </c>
       <c r="E66" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F66">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B67">
-        <v>22564.0182161182</v>
+        <v>21928.9746105746</v>
       </c>
       <c r="C67">
-        <v>322206.57</v>
+        <v>351444.4</v>
       </c>
       <c r="D67">
-        <v>17.4915839250565</v>
+        <v>17.4281518077532</v>
       </c>
       <c r="E67" t="str">
         <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F67">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2556,229 +2568,229 @@
         <v>11</v>
       </c>
       <c r="B68">
-        <v>22869.1002144969</v>
+        <v>22258.0253526228</v>
       </c>
       <c r="C68">
-        <v>243332.91</v>
+        <v>419404.92</v>
       </c>
       <c r="D68">
         <v>17.5187710419973</v>
       </c>
       <c r="E68" t="str">
-        <f>E67</f>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F68">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>23214.1262783233</v>
+        <v>22564.0182161182</v>
       </c>
       <c r="C69">
-        <v>187817.59</v>
+        <v>322206.57</v>
       </c>
       <c r="D69">
-        <v>17.5822336093267</v>
+        <v>17.4915839250565</v>
       </c>
       <c r="E69" t="str">
-        <f>E68</f>
+        <f t="shared" si="1"/>
         <v>3'</v>
       </c>
       <c r="F69">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B70">
-        <v>1324.19134944195</v>
+        <v>22869.1002144969</v>
       </c>
       <c r="C70">
-        <v>1344961.42</v>
+        <v>243332.91</v>
       </c>
       <c r="D70">
-        <v>0.689360175100962</v>
-      </c>
-      <c r="E70" t="s">
-        <v>13</v>
+        <v>17.5187710419973</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>3'</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B71">
-        <v>1669.23827394601</v>
+        <v>23214.1262783233</v>
       </c>
       <c r="C71">
-        <v>641922.45</v>
+        <v>187817.59</v>
       </c>
       <c r="D71">
-        <v>0.720963666407267</v>
+        <v>17.5822336093267</v>
       </c>
       <c r="E71" t="str">
-        <f>E70</f>
-        <v>5'</v>
+        <f t="shared" si="1"/>
+        <v>3'</v>
       </c>
       <c r="F71">
-        <v>5</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B72">
-        <v>2014.28492835928</v>
+        <v>1324.19134944195</v>
       </c>
       <c r="C72">
-        <v>822070.69</v>
+        <v>1344961.42</v>
       </c>
       <c r="D72">
-        <v>0.75256482518514</v>
-      </c>
-      <c r="E72" t="str">
-        <f t="shared" ref="E72:E103" si="2">E71</f>
-        <v>5'</v>
+        <v>0.689360175100962</v>
+      </c>
+      <c r="E72" t="s">
+        <v>13</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B73">
-        <v>2343.33763754478</v>
+        <v>1669.23827394601</v>
       </c>
       <c r="C73">
-        <v>361680.54</v>
+        <v>641922.45</v>
       </c>
       <c r="D73">
-        <v>0.842852915891012</v>
+        <v>0.720963666407267</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="2"/>
+        <f>E72</f>
         <v>5'</v>
       </c>
       <c r="F73">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B74">
-        <v>2667.37226926441</v>
+        <v>2014.28492835928</v>
       </c>
       <c r="C74">
-        <v>109162.53</v>
+        <v>822070.69</v>
       </c>
       <c r="D74">
-        <v>0.960227415529887</v>
+        <v>0.75256482518514</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="E74:E105" si="2">E73</f>
         <v>5'</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B75">
-        <v>3012.4250787255</v>
+        <v>2343.33763754478</v>
       </c>
       <c r="C75">
-        <v>87392.62</v>
+        <v>361680.54</v>
       </c>
       <c r="D75">
-        <v>1.25818614122073</v>
+        <v>0.842852915891012</v>
       </c>
       <c r="E75" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F75">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B76">
-        <v>3357.47023417175</v>
+        <v>2667.37226926441</v>
       </c>
       <c r="C76">
-        <v>175032.2</v>
+        <v>109162.53</v>
       </c>
       <c r="D76">
-        <v>4.22869160927137</v>
+        <v>0.960227415529887</v>
       </c>
       <c r="E76" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F76">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B77">
-        <v>3662.51219453175</v>
+        <v>3012.4250787255</v>
       </c>
       <c r="C77">
-        <v>422866.61</v>
+        <v>87392.62</v>
       </c>
       <c r="D77">
-        <v>5.54697173194885</v>
+        <v>1.25818614122073</v>
       </c>
       <c r="E77" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F77">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B78">
-        <v>3967.5505418653</v>
+        <v>3357.47023417175</v>
       </c>
       <c r="C78">
-        <v>885775.66</v>
+        <v>175032.2</v>
       </c>
       <c r="D78">
-        <v>6.72080412464142</v>
+        <v>4.22869160927137</v>
       </c>
       <c r="E78" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F78">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2786,272 +2798,272 @@
         <v>8</v>
       </c>
       <c r="B79">
-        <v>4312.60068740096</v>
+        <v>3662.51219453175</v>
       </c>
       <c r="C79">
-        <v>1286565.08</v>
+        <v>422866.61</v>
       </c>
       <c r="D79">
-        <v>7.47026104089419</v>
+        <v>5.54697173194885</v>
       </c>
       <c r="E79" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F79">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B80">
-        <v>4641.65287025056</v>
+        <v>3967.5505418653</v>
       </c>
       <c r="C80">
-        <v>1399494.97</v>
+        <v>885775.66</v>
       </c>
       <c r="D80">
-        <v>8.42743214921951</v>
+        <v>6.72080412464142</v>
       </c>
       <c r="E80" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F80">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B81">
-        <v>4986.69856468201</v>
+        <v>4312.60068740096</v>
       </c>
       <c r="C81">
-        <v>1509549.38</v>
+        <v>1286565.08</v>
       </c>
       <c r="D81">
-        <v>8.94216100927989</v>
+        <v>7.47026104089419</v>
       </c>
       <c r="E81" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F81">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B82">
-        <v>5292.7245346745</v>
+        <v>4641.65287025056</v>
       </c>
       <c r="C82">
-        <v>1971994.08</v>
+        <v>1399494.97</v>
       </c>
       <c r="D82">
-        <v>9.38918331619898</v>
+        <v>8.42743214921951</v>
       </c>
       <c r="E82" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F82">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B83">
-        <v>5637.77317654352</v>
+        <v>4986.69856468201</v>
       </c>
       <c r="C83">
-        <v>1895557.41</v>
+        <v>1509549.38</v>
       </c>
       <c r="D83">
-        <v>9.84069450852076</v>
+        <v>8.94216100927989</v>
       </c>
       <c r="E83" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F83">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B84">
-        <v>5982.81819500455</v>
+        <v>5292.7245346745</v>
       </c>
       <c r="C84">
-        <v>1371553.76</v>
+        <v>1971994.08</v>
       </c>
       <c r="D84">
-        <v>10.2606366332054</v>
+        <v>9.38918331619898</v>
       </c>
       <c r="E84" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F84">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B85">
-        <v>6288.84513829139</v>
+        <v>5637.77317654352</v>
       </c>
       <c r="C85">
-        <v>1803321.38</v>
+        <v>1895557.41</v>
       </c>
       <c r="D85">
-        <v>10.5902568753243</v>
+        <v>9.84069450852076</v>
       </c>
       <c r="E85" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F85">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>6593.88707098509</v>
+        <v>5982.81819500455</v>
       </c>
       <c r="C86">
-        <v>2542189.63</v>
+        <v>1371553.76</v>
       </c>
       <c r="D86">
-        <v>10.9199120835145</v>
+        <v>10.2606366332054</v>
       </c>
       <c r="E86" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F86">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B87">
-        <v>6938.93299127687</v>
+        <v>6288.84513829139</v>
       </c>
       <c r="C87">
-        <v>2434763.56</v>
+        <v>1803321.38</v>
       </c>
       <c r="D87">
-        <v>11.2179445997556</v>
+        <v>10.5902568753243</v>
       </c>
       <c r="E87" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F87">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B88">
-        <v>7244.96190139495</v>
+        <v>6593.88707098509</v>
       </c>
       <c r="C88">
-        <v>2640253.22</v>
+        <v>2542189.63</v>
       </c>
       <c r="D88">
-        <v>11.4889090414524</v>
+        <v>10.9199120835145</v>
       </c>
       <c r="E88" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F88">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B89">
-        <v>7550.98706480163</v>
+        <v>6938.93299127687</v>
       </c>
       <c r="C89">
-        <v>3120179.2</v>
+        <v>2434763.56</v>
       </c>
       <c r="D89">
-        <v>11.7327644006093</v>
+        <v>11.2179445997556</v>
       </c>
       <c r="E89" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F89">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B90">
-        <v>7857.01026665949</v>
+        <v>7244.96190139495</v>
       </c>
       <c r="C90">
-        <v>3060621.7</v>
+        <v>2640253.22</v>
       </c>
       <c r="D90">
-        <v>11.9676084673087</v>
+        <v>11.4889090414524</v>
       </c>
       <c r="E90" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F90">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B91">
-        <v>8163.04055515502</v>
+        <v>7550.98706480163</v>
       </c>
       <c r="C91">
-        <v>3161401.47</v>
+        <v>3120179.2</v>
       </c>
       <c r="D91">
-        <v>12.2114680762768</v>
+        <v>11.7327644006093</v>
       </c>
       <c r="E91" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F91">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -3059,83 +3071,83 @@
         <v>10</v>
       </c>
       <c r="B92">
-        <v>8492.08524994195</v>
+        <v>7857.01026665949</v>
       </c>
       <c r="C92">
-        <v>2108895.31</v>
+        <v>3060621.7</v>
       </c>
       <c r="D92">
-        <v>12.5998928165118</v>
+        <v>11.9676084673087</v>
       </c>
       <c r="E92" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F92">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B93">
-        <v>8837.13663412371</v>
+        <v>8163.04055515502</v>
       </c>
       <c r="C93">
-        <v>2095939.58</v>
+        <v>3161401.47</v>
       </c>
       <c r="D93">
-        <v>12.7489414906184</v>
+        <v>12.2114680762768</v>
       </c>
       <c r="E93" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F93">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B94">
-        <v>9166.185978893</v>
+        <v>8492.08524994195</v>
       </c>
       <c r="C94">
-        <v>1618159.19</v>
+        <v>2108895.31</v>
       </c>
       <c r="D94">
-        <v>13.0515593584061</v>
+        <v>12.5998928165118</v>
       </c>
       <c r="E94" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F94">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B95">
-        <v>9511.23401211689</v>
+        <v>8837.13663412371</v>
       </c>
       <c r="C95">
-        <v>1831693.96</v>
+        <v>2095939.58</v>
       </c>
       <c r="D95">
-        <v>13.2006368831476</v>
+        <v>12.7489414906184</v>
       </c>
       <c r="E95" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F95">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3143,209 +3155,209 @@
         <v>11</v>
       </c>
       <c r="B96">
-        <v>9816.27702548157</v>
+        <v>9166.185978893</v>
       </c>
       <c r="C96">
-        <v>1584339.83</v>
+        <v>1618159.19</v>
       </c>
       <c r="D96">
-        <v>13.3497203008016</v>
+        <v>13.0515593584061</v>
       </c>
       <c r="E96" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F96">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B97">
-        <v>10122.3012987838</v>
+        <v>9511.23401211689</v>
       </c>
       <c r="C97">
-        <v>2086189.87</v>
+        <v>1831693.96</v>
       </c>
       <c r="D97">
-        <v>13.4671839670022</v>
+        <v>13.2006368831476</v>
       </c>
       <c r="E97" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F97">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B98">
-        <v>10451.3494832797</v>
+        <v>9816.27702548157</v>
       </c>
       <c r="C98">
-        <v>1385416.6</v>
+        <v>1584339.83</v>
       </c>
       <c r="D98">
-        <v>13.7382864590168</v>
+        <v>13.3497203008016</v>
       </c>
       <c r="E98" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F98">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B99">
-        <v>10796.3945032075</v>
+        <v>10122.3012987838</v>
       </c>
       <c r="C99">
-        <v>1540708.37</v>
+        <v>2086189.87</v>
       </c>
       <c r="D99">
-        <v>13.8918964818796</v>
+        <v>13.4671839670022</v>
       </c>
       <c r="E99" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F99">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B100">
-        <v>11125.4500767993</v>
+        <v>10451.3494832797</v>
       </c>
       <c r="C100">
-        <v>1398939.44</v>
+        <v>1385416.6</v>
       </c>
       <c r="D100">
-        <v>14.1268205817223</v>
+        <v>13.7382864590168</v>
       </c>
       <c r="E100" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F100">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B101">
-        <v>11436.4947419693</v>
+        <v>10796.3945032075</v>
       </c>
       <c r="C101">
-        <v>161321.58</v>
+        <v>1540708.37</v>
       </c>
       <c r="D101">
-        <v>14.2171823417823</v>
+        <v>13.8918964818796</v>
       </c>
       <c r="E101" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F101">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B102">
-        <v>11783.5586549682</v>
+        <v>11125.4500767993</v>
       </c>
       <c r="C102">
-        <v>1012865.89</v>
+        <v>1398939.44</v>
       </c>
       <c r="D102">
-        <v>14.5515252407074</v>
+        <v>14.1268205817223</v>
       </c>
       <c r="E102" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F102">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B103">
-        <v>12089.579303199</v>
+        <v>11436.4947419693</v>
       </c>
       <c r="C103">
-        <v>1456495.65</v>
+        <v>161321.58</v>
       </c>
       <c r="D103">
-        <v>14.6418989157359</v>
+        <v>14.2171823417823</v>
       </c>
       <c r="E103" t="str">
         <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F103">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B104">
-        <v>12418.625761424</v>
+        <v>11783.5586549682</v>
       </c>
       <c r="C104">
-        <v>1030898.53</v>
+        <v>1012865.89</v>
       </c>
       <c r="D104">
-        <v>14.8498154755116</v>
+        <v>14.5515252407074</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" ref="E104:E135" si="3">E103</f>
+        <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F104">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B105">
-        <v>12763.6834731489</v>
+        <v>12089.579303199</v>
       </c>
       <c r="C105">
-        <v>1070281.81</v>
+        <v>1456495.65</v>
       </c>
       <c r="D105">
-        <v>14.9402156169891</v>
+        <v>14.6418989157359</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5'</v>
       </c>
       <c r="F105">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3353,125 +3365,125 @@
         <v>11</v>
       </c>
       <c r="B106">
-        <v>13068.7241349547</v>
+        <v>12418.625761424</v>
       </c>
       <c r="C106">
-        <v>1507329.24</v>
+        <v>1030898.53</v>
       </c>
       <c r="D106">
-        <v>14.9989734327475</v>
+        <v>14.8498154755116</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E106:E140" si="3">E105</f>
         <v>5'</v>
       </c>
       <c r="F106">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B107">
-        <v>13397.7786864535</v>
+        <v>12763.6834731489</v>
       </c>
       <c r="C107">
-        <v>1162560.95</v>
+        <v>1070281.81</v>
       </c>
       <c r="D107">
-        <v>15.2114277418137</v>
+        <v>14.9402156169891</v>
       </c>
       <c r="E107" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F107">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B108">
-        <v>13726.8264559658</v>
+        <v>13068.7241349547</v>
       </c>
       <c r="C108">
-        <v>1028736.36</v>
+        <v>1507329.24</v>
       </c>
       <c r="D108">
-        <v>15.3289738670667</v>
+        <v>14.9989734327475</v>
       </c>
       <c r="E108" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F108">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B109">
-        <v>14071.8838850621</v>
+        <v>13397.7786864535</v>
       </c>
       <c r="C109">
-        <v>959628.41</v>
+        <v>1162560.95</v>
       </c>
       <c r="D109">
-        <v>15.4193835313797</v>
+        <v>15.2114277418137</v>
       </c>
       <c r="E109" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F109">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B110">
-        <v>14377.9087039575</v>
+        <v>13726.8264559658</v>
       </c>
       <c r="C110">
-        <v>922068.34</v>
+        <v>1028736.36</v>
       </c>
       <c r="D110">
-        <v>15.4826778665861</v>
+        <v>15.3289738670667</v>
       </c>
       <c r="E110" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F110">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B111">
-        <v>14683.9239008763</v>
+        <v>14071.8838850621</v>
       </c>
       <c r="C111">
-        <v>1287288.66</v>
+        <v>959628.41</v>
       </c>
       <c r="D111">
-        <v>15.5369226987839</v>
+        <v>15.4193835313797</v>
       </c>
       <c r="E111" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F111">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3479,20 +3491,20 @@
         <v>10</v>
       </c>
       <c r="B112">
-        <v>15012.9790035782</v>
+        <v>14377.9087039575</v>
       </c>
       <c r="C112">
-        <v>1095226.62</v>
+        <v>922068.34</v>
       </c>
       <c r="D112">
-        <v>15.6906390086492</v>
+        <v>15.4826778665861</v>
       </c>
       <c r="E112" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F112">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3500,104 +3512,104 @@
         <v>10</v>
       </c>
       <c r="B113">
-        <v>15342.038035285</v>
+        <v>14683.9239008763</v>
       </c>
       <c r="C113">
-        <v>1016824.81</v>
+        <v>1287288.66</v>
       </c>
       <c r="D113">
-        <v>15.8398406084061</v>
+        <v>15.5369226987839</v>
       </c>
       <c r="E113" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F113">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B114">
-        <v>15671.0671561733</v>
+        <v>15012.9790035782</v>
       </c>
       <c r="C114">
-        <v>1056160.01</v>
+        <v>1095226.62</v>
       </c>
       <c r="D114">
-        <v>15.9619229749521</v>
+        <v>15.6906390086492</v>
       </c>
       <c r="E114" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F114">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B115">
-        <v>16000.1378663256</v>
+        <v>15342.038035285</v>
       </c>
       <c r="C115">
-        <v>632286.1</v>
+        <v>1016824.81</v>
       </c>
       <c r="D115">
-        <v>16.0794888750394</v>
+        <v>15.8398406084061</v>
       </c>
       <c r="E115" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F115">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B116">
-        <v>16306.1693161771</v>
+        <v>15671.0671561733</v>
       </c>
       <c r="C116">
-        <v>994880.49</v>
+        <v>1056160.01</v>
       </c>
       <c r="D116">
-        <v>16.1111437236945</v>
+        <v>15.9619229749521</v>
       </c>
       <c r="E116" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F116">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B117">
-        <v>16635.2080478003</v>
+        <v>16000.1378663256</v>
       </c>
       <c r="C117">
-        <v>856909.54</v>
+        <v>632286.1</v>
       </c>
       <c r="D117">
-        <v>16.2603708660285</v>
+        <v>16.0794888750394</v>
       </c>
       <c r="E117" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F117">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3605,209 +3617,209 @@
         <v>10</v>
       </c>
       <c r="B118">
-        <v>16964.2627391411</v>
+        <v>16306.1693161771</v>
       </c>
       <c r="C118">
-        <v>634786.71</v>
+        <v>994880.49</v>
       </c>
       <c r="D118">
-        <v>16.3508305008888</v>
+        <v>16.1111437236945</v>
       </c>
       <c r="E118" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F118">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B119">
-        <v>17309.2981348257</v>
+        <v>16635.2080478003</v>
       </c>
       <c r="C119">
-        <v>588018.46</v>
+        <v>856909.54</v>
       </c>
       <c r="D119">
-        <v>16.377977033027</v>
+        <v>16.2603708660285</v>
       </c>
       <c r="E119" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F119">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B120">
-        <v>17654.3552394374</v>
+        <v>16964.2627391411</v>
       </c>
       <c r="C120">
-        <v>579288.29</v>
+        <v>634786.71</v>
       </c>
       <c r="D120">
-        <v>16.4413115576585</v>
+        <v>16.3508305008888</v>
       </c>
       <c r="E120" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F120">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B121">
-        <v>17959.3797253688</v>
+        <v>17309.2981348257</v>
       </c>
       <c r="C121">
-        <v>529011.78</v>
+        <v>588018.46</v>
       </c>
       <c r="D121">
-        <v>16.5001396095435</v>
+        <v>16.377977033027</v>
       </c>
       <c r="E121" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F121">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B122">
-        <v>18265.3947544255</v>
+        <v>17654.3552394374</v>
       </c>
       <c r="C122">
-        <v>692936.81</v>
+        <v>579288.29</v>
       </c>
       <c r="D122">
-        <v>16.531815466849</v>
+        <v>16.4413115576585</v>
       </c>
       <c r="E122" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F122">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B123">
-        <v>18594.4799846249</v>
+        <v>17959.3797253688</v>
       </c>
       <c r="C123">
-        <v>472660.55</v>
+        <v>529011.78</v>
       </c>
       <c r="D123">
-        <v>16.6494468585332</v>
+        <v>16.5001396095435</v>
       </c>
       <c r="E123" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F123">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B124">
-        <v>18939.5151693103</v>
+        <v>18265.3947544255</v>
       </c>
       <c r="C124">
-        <v>353784.78</v>
+        <v>692936.81</v>
       </c>
       <c r="D124">
-        <v>16.6811211243947</v>
+        <v>16.531815466849</v>
       </c>
       <c r="E124" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F124">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B125">
-        <v>19245.5281875652</v>
+        <v>18594.4799846249</v>
       </c>
       <c r="C125">
-        <v>433181.63</v>
+        <v>472660.55</v>
       </c>
       <c r="D125">
-        <v>16.7127896324476</v>
+        <v>16.6494468585332</v>
       </c>
       <c r="E125" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F125">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B126">
-        <v>19550.6057072875</v>
+        <v>18939.5151693103</v>
       </c>
       <c r="C126">
-        <v>462982.32</v>
+        <v>353784.78</v>
       </c>
       <c r="D126">
-        <v>16.767093258667</v>
+        <v>16.6811211243947</v>
       </c>
       <c r="E126" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F126">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B127">
-        <v>19855.6338354727</v>
+        <v>19245.5281875652</v>
       </c>
       <c r="C127">
-        <v>556215.99</v>
+        <v>433181.63</v>
       </c>
       <c r="D127">
-        <v>16.8032934323629</v>
+        <v>16.7127896324476</v>
       </c>
       <c r="E127" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F127">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3815,62 +3827,62 @@
         <v>8</v>
       </c>
       <c r="B128">
-        <v>20200.6714803979</v>
+        <v>19550.6057072875</v>
       </c>
       <c r="C128">
-        <v>367670.51</v>
+        <v>462982.32</v>
       </c>
       <c r="D128">
-        <v>16.8575977579435</v>
+        <v>16.767093258667</v>
       </c>
       <c r="E128" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F128">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B129">
-        <v>20506.6830204068</v>
+        <v>19855.6338354727</v>
       </c>
       <c r="C129">
-        <v>335893.51</v>
+        <v>556215.99</v>
       </c>
       <c r="D129">
-        <v>16.8575977579435</v>
+        <v>16.8032934323629</v>
       </c>
       <c r="E129" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F129">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B130">
-        <v>20812.7144510212</v>
+        <v>20200.6714803979</v>
       </c>
       <c r="C130">
-        <v>520120.65</v>
+        <v>367670.51</v>
       </c>
       <c r="D130">
-        <v>16.889276374944</v>
+        <v>16.8575977579435</v>
       </c>
       <c r="E130" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F130">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3878,41 +3890,41 @@
         <v>10</v>
       </c>
       <c r="B131">
-        <v>21141.797752076</v>
+        <v>20506.6830204068</v>
       </c>
       <c r="C131">
-        <v>256812.58</v>
+        <v>335893.51</v>
       </c>
       <c r="D131">
-        <v>16.9797997828007</v>
+        <v>16.8575977579435</v>
       </c>
       <c r="E131" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F131">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B132">
-        <v>21447.8074381648</v>
+        <v>20812.7144510212</v>
       </c>
       <c r="C132">
-        <v>364234.25</v>
+        <v>520120.65</v>
       </c>
       <c r="D132">
-        <v>16.9797997828007</v>
+        <v>16.889276374944</v>
       </c>
       <c r="E132" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F132">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3920,20 +3932,20 @@
         <v>11</v>
       </c>
       <c r="B133">
-        <v>21752.8442495698</v>
+        <v>21141.797752076</v>
       </c>
       <c r="C133">
-        <v>360654.73</v>
+        <v>256812.58</v>
       </c>
       <c r="D133">
-        <v>17.0114813502312</v>
+        <v>16.9797997828007</v>
       </c>
       <c r="E133" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F133">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3941,41 +3953,41 @@
         <v>10</v>
       </c>
       <c r="B134">
-        <v>22081.8780776365</v>
+        <v>21447.8074381648</v>
       </c>
       <c r="C134">
-        <v>295476.09</v>
+        <v>364234.25</v>
       </c>
       <c r="D134">
-        <v>17.1020295754751</v>
+        <v>16.9797997828007</v>
       </c>
       <c r="E134" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F134">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B135">
-        <v>22410.9423567912</v>
+        <v>21752.8442495698</v>
       </c>
       <c r="C135">
-        <v>329812.71</v>
+        <v>360654.73</v>
       </c>
       <c r="D135">
-        <v>17.1291962678909</v>
+        <v>17.0114813502312</v>
       </c>
       <c r="E135" t="str">
         <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F135">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3983,299 +3995,401 @@
         <v>11</v>
       </c>
       <c r="B136">
-        <v>22716.0067606761</v>
+        <v>22081.8780776365</v>
       </c>
       <c r="C136">
-        <v>285614.44</v>
+        <v>295476.09</v>
       </c>
       <c r="D136">
-        <v>17.1608877495607</v>
+        <v>17.1020295754751</v>
       </c>
       <c r="E136" t="str">
-        <f>E135</f>
+        <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F136">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B137">
-        <v>23021.9859869987</v>
+        <v>22410.9423567912</v>
       </c>
       <c r="C137">
-        <v>240283.72</v>
+        <v>329812.71</v>
       </c>
       <c r="D137">
-        <v>17.1608877495607</v>
+        <v>17.1291962678909</v>
       </c>
       <c r="E137" t="str">
-        <f>E136</f>
+        <f t="shared" si="3"/>
         <v>5'</v>
       </c>
       <c r="F137">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B138">
+        <v>22716.0067606761</v>
+      </c>
+      <c r="C138">
+        <v>285614.44</v>
+      </c>
+      <c r="D138">
+        <v>17.1608877495607</v>
+      </c>
+      <c r="E138" t="str">
+        <f t="shared" si="3"/>
+        <v>5'</v>
+      </c>
+      <c r="F138">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139">
+        <v>23021.9859869987</v>
+      </c>
+      <c r="C139">
+        <v>240283.72</v>
+      </c>
+      <c r="D139">
+        <v>17.1608877495607</v>
+      </c>
+      <c r="E139" t="str">
+        <f t="shared" si="3"/>
+        <v>5'</v>
+      </c>
+      <c r="F139">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140">
         <v>23328.0301927488</v>
       </c>
-      <c r="C138">
+      <c r="C140">
         <v>300735.11</v>
       </c>
-      <c r="D138">
+      <c r="D140">
         <v>17.1925830081781</v>
       </c>
-      <c r="E138" t="str">
-        <f>E137</f>
+      <c r="E140" t="str">
+        <f t="shared" si="3"/>
         <v>5'</v>
       </c>
-      <c r="F138">
+      <c r="F140">
         <v>72</v>
       </c>
     </row>
+    <row r="141" spans="1:6">
+      <c r="A141" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="2">
+        <v>32362.3132575716</v>
+      </c>
+      <c r="C141" s="3">
+        <v>2752970.42</v>
+      </c>
+      <c r="D141" s="4">
+        <v>18.0910537079652</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" t="s">
+        <v>10</v>
+      </c>
+      <c r="B142" s="2">
+        <v>32362.3132575716</v>
+      </c>
+      <c r="C142" s="3">
+        <v>2752970.42</v>
+      </c>
+      <c r="D142" s="4">
+        <v>18.0910537079652</v>
+      </c>
+      <c r="E142" t="s">
+        <v>13</v>
+      </c>
+      <c r="F142">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" t="s">
+        <v>10</v>
+      </c>
+      <c r="B143" s="2">
+        <v>32362.3132575716</v>
+      </c>
+      <c r="C143" s="3">
+        <v>2752970.42</v>
+      </c>
+      <c r="D143" s="4">
+        <v>18.0910537079652</v>
+      </c>
+      <c r="E143" t="s">
+        <v>7</v>
+      </c>
+      <c r="F143">
+        <v>100</v>
+      </c>
+    </row>
     <row r="237" spans="5:6">
-      <c r="E237" s="2"/>
-      <c r="F237" s="2"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
     </row>
     <row r="238" spans="5:6">
-      <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
     </row>
     <row r="239" spans="5:6">
-      <c r="E239" s="2"/>
-      <c r="F239" s="2"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
     </row>
     <row r="240" spans="5:6">
-      <c r="E240" s="2"/>
-      <c r="F240" s="2"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
     </row>
     <row r="241" spans="5:6">
-      <c r="E241" s="2"/>
-      <c r="F241" s="2"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
     </row>
     <row r="242" spans="5:6">
-      <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
     </row>
     <row r="243" spans="5:6">
-      <c r="E243" s="2"/>
-      <c r="F243" s="2"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
     </row>
     <row r="244" spans="5:6">
-      <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
     </row>
     <row r="245" spans="5:6">
-      <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
     </row>
     <row r="246" spans="5:6">
-      <c r="E246" s="2"/>
-      <c r="F246" s="2"/>
+      <c r="E246" s="5"/>
+      <c r="F246" s="5"/>
     </row>
     <row r="247" spans="5:6">
-      <c r="E247" s="2"/>
-      <c r="F247" s="2"/>
+      <c r="E247" s="5"/>
+      <c r="F247" s="5"/>
     </row>
     <row r="248" spans="5:6">
-      <c r="E248" s="2"/>
-      <c r="F248" s="2"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
     </row>
     <row r="259" spans="5:6">
-      <c r="E259" s="2"/>
-      <c r="F259" s="2"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
     </row>
     <row r="260" spans="5:6">
-      <c r="E260" s="2"/>
-      <c r="F260" s="2"/>
+      <c r="E260" s="5"/>
+      <c r="F260" s="5"/>
     </row>
     <row r="261" spans="5:6">
-      <c r="E261" s="2"/>
-      <c r="F261" s="2"/>
+      <c r="E261" s="5"/>
+      <c r="F261" s="5"/>
     </row>
     <row r="262" spans="5:6">
-      <c r="E262" s="2"/>
-      <c r="F262" s="2"/>
+      <c r="E262" s="5"/>
+      <c r="F262" s="5"/>
     </row>
     <row r="263" spans="5:6">
-      <c r="E263" s="2"/>
-      <c r="F263" s="2"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
     </row>
     <row r="264" spans="5:6">
-      <c r="E264" s="2"/>
-      <c r="F264" s="2"/>
+      <c r="E264" s="5"/>
+      <c r="F264" s="5"/>
     </row>
     <row r="265" spans="5:6">
-      <c r="E265" s="2"/>
-      <c r="F265" s="2"/>
+      <c r="E265" s="5"/>
+      <c r="F265" s="5"/>
     </row>
     <row r="266" spans="5:6">
-      <c r="E266" s="2"/>
-      <c r="F266" s="2"/>
+      <c r="E266" s="5"/>
+      <c r="F266" s="5"/>
     </row>
     <row r="267" spans="5:6">
-      <c r="E267" s="2"/>
-      <c r="F267" s="2"/>
+      <c r="E267" s="5"/>
+      <c r="F267" s="5"/>
     </row>
     <row r="268" spans="5:6">
-      <c r="E268" s="2"/>
-      <c r="F268" s="2"/>
+      <c r="E268" s="5"/>
+      <c r="F268" s="5"/>
     </row>
     <row r="269" spans="5:6">
-      <c r="E269" s="2"/>
-      <c r="F269" s="2"/>
+      <c r="E269" s="5"/>
+      <c r="F269" s="5"/>
     </row>
     <row r="270" spans="5:6">
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
     </row>
     <row r="271" spans="5:6">
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
     </row>
     <row r="272" spans="5:6">
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
     </row>
     <row r="273" spans="5:6">
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
     </row>
     <row r="274" spans="5:6">
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
     </row>
     <row r="275" spans="5:6">
-      <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
+      <c r="E275" s="5"/>
+      <c r="F275" s="5"/>
     </row>
     <row r="276" spans="5:6">
-      <c r="E276" s="2"/>
-      <c r="F276" s="2"/>
+      <c r="E276" s="5"/>
+      <c r="F276" s="5"/>
     </row>
     <row r="277" spans="5:6">
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
+      <c r="E277" s="6"/>
+      <c r="F277" s="6"/>
     </row>
     <row r="278" spans="5:6">
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
+      <c r="E278" s="6"/>
+      <c r="F278" s="6"/>
     </row>
     <row r="279" spans="5:6">
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
+      <c r="E279" s="6"/>
+      <c r="F279" s="6"/>
     </row>
     <row r="280" spans="5:6">
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
+      <c r="E280" s="6"/>
+      <c r="F280" s="6"/>
     </row>
     <row r="281" spans="5:6">
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
+      <c r="E281" s="6"/>
+      <c r="F281" s="6"/>
     </row>
     <row r="282" spans="5:6">
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
+      <c r="E282" s="6"/>
+      <c r="F282" s="6"/>
     </row>
     <row r="283" spans="5:6">
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
+      <c r="E283" s="6"/>
+      <c r="F283" s="6"/>
     </row>
     <row r="284" spans="5:6">
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
+      <c r="E284" s="6"/>
+      <c r="F284" s="6"/>
     </row>
     <row r="285" spans="5:6">
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
+      <c r="E285" s="6"/>
+      <c r="F285" s="6"/>
     </row>
     <row r="286" spans="5:6">
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
+      <c r="E286" s="6"/>
+      <c r="F286" s="6"/>
     </row>
     <row r="287" spans="5:6">
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
+      <c r="E287" s="6"/>
+      <c r="F287" s="6"/>
     </row>
     <row r="288" spans="5:6">
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
+      <c r="E288" s="6"/>
+      <c r="F288" s="6"/>
     </row>
     <row r="289" spans="5:6">
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
+      <c r="E289" s="6"/>
+      <c r="F289" s="6"/>
     </row>
     <row r="290" spans="5:6">
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
+      <c r="E290" s="6"/>
+      <c r="F290" s="6"/>
     </row>
     <row r="291" spans="5:6">
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
+      <c r="E291" s="6"/>
+      <c r="F291" s="6"/>
     </row>
     <row r="292" spans="5:6">
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
+      <c r="E292" s="6"/>
+      <c r="F292" s="6"/>
     </row>
     <row r="293" spans="5:6">
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
+      <c r="E293" s="6"/>
+      <c r="F293" s="6"/>
     </row>
     <row r="294" spans="5:6">
-      <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
+      <c r="E294" s="6"/>
+      <c r="F294" s="6"/>
     </row>
     <row r="295" spans="5:6">
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
+      <c r="E295" s="6"/>
+      <c r="F295" s="6"/>
     </row>
     <row r="296" spans="5:6">
-      <c r="E296" s="2"/>
-      <c r="F296" s="2"/>
+      <c r="E296" s="5"/>
+      <c r="F296" s="5"/>
     </row>
     <row r="297" spans="5:6">
-      <c r="E297" s="2"/>
-      <c r="F297" s="2"/>
+      <c r="E297" s="5"/>
+      <c r="F297" s="5"/>
     </row>
     <row r="298" spans="5:6">
-      <c r="E298" s="2"/>
-      <c r="F298" s="2"/>
+      <c r="E298" s="5"/>
+      <c r="F298" s="5"/>
     </row>
     <row r="299" spans="5:6">
-      <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
+      <c r="E299" s="5"/>
+      <c r="F299" s="5"/>
     </row>
     <row r="300" spans="5:6">
-      <c r="E300" s="2"/>
-      <c r="F300" s="2"/>
+      <c r="E300" s="5"/>
+      <c r="F300" s="5"/>
     </row>
     <row r="301" spans="5:6">
-      <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
+      <c r="E301" s="5"/>
+      <c r="F301" s="5"/>
     </row>
     <row r="302" spans="5:6">
-      <c r="E302" s="2"/>
-      <c r="F302" s="2"/>
+      <c r="E302" s="5"/>
+      <c r="F302" s="5"/>
     </row>
     <row r="303" spans="5:6">
-      <c r="E303" s="2"/>
-      <c r="F303" s="2"/>
+      <c r="E303" s="5"/>
+      <c r="F303" s="5"/>
     </row>
     <row r="304" spans="5:6">
-      <c r="E304" s="2"/>
-      <c r="F304" s="2"/>
+      <c r="E304" s="5"/>
+      <c r="F304" s="5"/>
     </row>
     <row r="305" spans="5:6">
-      <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
+      <c r="E305" s="5"/>
+      <c r="F305" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4300,58 +4414,58 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y1" t="s">
         <v>7</v>
       </c>
       <c r="Z1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AA1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="12:18">
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1505.22714169319</v>
@@ -4365,7 +4479,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1850.27356978768</v>
@@ -4379,7 +4493,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2156.29948050156</v>
@@ -4393,7 +4507,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2501.34755923852</v>
@@ -4413,7 +4527,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3151.43561388501</v>
@@ -4427,7 +4541,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>3457.45935444331</v>
@@ -4443,7 +4557,7 @@
         <v>21.9821608316397</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <v>3479.44151527495</v>
@@ -4457,7 +4571,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3802.5098170258</v>
@@ -4473,7 +4587,7 @@
         <v>21.9825961082197</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>3824.49241313402</v>
@@ -4487,7 +4601,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>4131.56255391866</v>
@@ -4503,7 +4617,7 @@
         <v>21.9789622375692</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>4153.54151615623</v>
@@ -4517,7 +4631,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>4476.61107037871</v>
@@ -4533,7 +4647,7 @@
         <v>21.9797929531205</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>4498.59086333183</v>
@@ -4547,7 +4661,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>4781.65147297701</v>
@@ -4563,7 +4677,7 @@
         <v>21.9790316235903</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>4803.6305046006</v>
@@ -4579,7 +4693,7 @@
         <v>101.118542265311</v>
       </c>
       <c r="S15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T15">
         <v>4882.77001524232</v>
@@ -4593,7 +4707,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>5086.69350961885</v>
@@ -4609,7 +4723,7 @@
         <v>21.97917553959</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>5108.67268515844</v>
@@ -4625,7 +4739,7 @@
         <v>101.11987018492</v>
       </c>
       <c r="S16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T16">
         <v>5187.81337980377</v>
@@ -4639,7 +4753,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>5415.74525981049</v>
@@ -4655,7 +4769,7 @@
         <v>21.9788296203697</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>5437.72408943086</v>
@@ -4671,7 +4785,7 @@
         <v>101.12159778212</v>
       </c>
       <c r="S17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T17">
         <v>5516.86685759261</v>
@@ -4685,7 +4799,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5720.787082709</v>
@@ -4701,7 +4815,7 @@
         <v>21.9776852795403</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>5742.76476798854</v>
@@ -4717,7 +4831,7 @@
         <v>101.12255164606</v>
       </c>
       <c r="S18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T18">
         <v>5821.90963435506</v>
@@ -4731,7 +4845,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>6065.83514494977</v>
@@ -4747,7 +4861,7 @@
         <v>21.9742746818192</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H19">
         <v>6087.80941963159</v>
@@ -4763,7 +4877,7 @@
         <v>101.10454583646</v>
       </c>
       <c r="S19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T19">
         <v>6166.93969078623</v>
@@ -4777,7 +4891,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>6410.88182188263</v>
@@ -4793,7 +4907,7 @@
         <v>21.9755351205304</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>6432.85735700316</v>
@@ -4809,7 +4923,7 @@
         <v>56.9197405208597</v>
       </c>
       <c r="M20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N20">
         <v>6467.80156240349</v>
@@ -4825,7 +4939,7 @@
         <v>101.12311380648</v>
       </c>
       <c r="S20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T20">
         <v>6512.00493568911</v>
@@ -4839,7 +4953,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>6716.90695347615</v>
@@ -4855,7 +4969,7 @@
         <v>21.9742952941797</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>6738.88124877033</v>
@@ -4871,7 +4985,7 @@
         <v>56.9183729286297</v>
       </c>
       <c r="M21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>6773.82532640478</v>
@@ -4887,7 +5001,7 @@
         <v>101.11975738915</v>
       </c>
       <c r="S21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T21">
         <v>6818.0267108653</v>
@@ -4901,7 +5015,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>7061.95402074302</v>
@@ -4917,7 +5031,7 @@
         <v>21.9748312205102</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H22">
         <v>7083.92885196353</v>
@@ -4933,7 +5047,7 @@
         <v>56.9212093747601</v>
       </c>
       <c r="M22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N22">
         <v>7118.87523011778</v>
@@ -4949,7 +5063,7 @@
         <v>101.12146310839</v>
       </c>
       <c r="S22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T22">
         <v>7163.07548385141</v>
@@ -4963,7 +5077,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>7391.00554817822</v>
@@ -4979,7 +5093,7 @@
         <v>21.9784840418497</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>7412.98403222007</v>
@@ -4995,7 +5109,7 @@
         <v>56.9195339545595</v>
       </c>
       <c r="M23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>7447.92508213278</v>
@@ -5011,7 +5125,7 @@
         <v>101.11674870784</v>
       </c>
       <c r="S23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T23">
         <v>7492.12229688606</v>
@@ -5025,7 +5139,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>7720.0556766764</v>
@@ -5041,7 +5155,7 @@
         <v>21.9778013283794</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H24">
         <v>7742.03347800478</v>
@@ -5057,7 +5171,7 @@
         <v>56.92468176075</v>
       </c>
       <c r="M24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N24">
         <v>7776.98035843715</v>
@@ -5073,7 +5187,7 @@
         <v>101.12617107325</v>
       </c>
       <c r="S24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T24">
         <v>7821.18184774965</v>
@@ -5087,7 +5201,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>8049.10700583822</v>
@@ -5103,7 +5217,7 @@
         <v>21.9798988460598</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
         <v>8071.08690468428</v>
@@ -5119,7 +5233,7 @@
         <v>56.9314788086695</v>
       </c>
       <c r="M25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N25">
         <v>8106.03848464689</v>
@@ -5135,7 +5249,7 @@
         <v>101.11784909206</v>
       </c>
       <c r="S25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T25">
         <v>8150.22485493028</v>
@@ -5149,7 +5263,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>8378.15510102445</v>
@@ -5165,7 +5279,7 @@
         <v>21.9829151131107</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H26">
         <v>8400.13801613756</v>
@@ -5181,7 +5295,7 @@
         <v>56.9316949261611</v>
       </c>
       <c r="M26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N26">
         <v>8435.08679595061</v>
@@ -5197,7 +5311,7 @@
         <v>101.12205730779</v>
       </c>
       <c r="S26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T26">
         <v>8479.27715833224</v>
@@ -5211,7 +5325,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>8707.20410630778</v>
@@ -5227,7 +5341,7 @@
         <v>21.9924126505703</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27">
         <v>8729.19651895835</v>
@@ -5243,7 +5357,7 @@
         <v>56.9353867061309</v>
       </c>
       <c r="M27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N27">
         <v>8764.13949301391</v>
@@ -5259,7 +5373,7 @@
         <v>101.126365088101</v>
       </c>
       <c r="S27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T27">
         <v>8808.33047139588</v>
@@ -5273,7 +5387,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>9052.24839872956</v>
@@ -5289,7 +5403,7 @@
         <v>21.9820279420692</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H28">
         <v>9074.23042667163</v>
@@ -5305,7 +5419,7 @@
         <v>17.9781457164299</v>
       </c>
       <c r="M28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N28">
         <v>9070.22654444599</v>
@@ -5321,7 +5435,7 @@
         <v>101.121633891211</v>
       </c>
       <c r="S28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T28">
         <v>9153.37003262077</v>
@@ -5335,7 +5449,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>9358.27878063925</v>
@@ -5351,7 +5465,7 @@
         <v>21.9746722129294</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H29">
         <v>9380.25345285218</v>
@@ -5367,7 +5481,7 @@
         <v>17.9761110691907</v>
       </c>
       <c r="M29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N29">
         <v>9376.25489170844</v>
@@ -5383,7 +5497,7 @@
         <v>101.129403324359</v>
       </c>
       <c r="S29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T29">
         <v>9459.40818396361</v>
@@ -5397,7 +5511,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>9664.3105902631</v>
@@ -5413,7 +5527,7 @@
         <v>21.9837279742205</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H30">
         <v>9686.29431823732</v>
@@ -5429,7 +5543,7 @@
         <v>56.9351500258908</v>
       </c>
       <c r="M30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>9721.24574028899</v>
@@ -5445,7 +5559,7 @@
         <v>101.119278313461</v>
       </c>
       <c r="S30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="T30">
         <v>9765.42986857656</v>
@@ -5459,7 +5573,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>9969.35391779908</v>
@@ -5475,7 +5589,7 @@
         <v>101.12071894132</v>
       </c>
       <c r="S31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="T31">
         <v>10070.4746367404</v>
@@ -5489,7 +5603,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>10298.4094355714</v>
@@ -5505,7 +5619,7 @@
         <v>101.1138889502</v>
       </c>
       <c r="S32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T32">
         <v>10399.5233245216</v>
@@ -5519,7 +5633,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>10627.4556082337</v>
@@ -5535,7 +5649,7 @@
         <v>101.1120207969</v>
       </c>
       <c r="S33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T33">
         <v>10728.5676290306</v>
@@ -5549,7 +5663,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>10932.5058035342</v>
@@ -5563,7 +5677,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>11238.5304445354</v>
@@ -5577,7 +5691,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>11567.583608482</v>
@@ -5591,7 +5705,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>11873.603056273</v>
@@ -5605,7 +5719,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>12179.6311737614</v>
@@ -5619,7 +5733,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>12524.6831161055</v>
@@ -5633,7 +5747,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>12829.7168563275</v>
@@ -5647,7 +5761,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>13134.7615879371</v>
@@ -5661,7 +5775,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>13440.7868363556</v>
@@ -5675,7 +5789,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>13785.8319667339</v>
@@ -5689,7 +5803,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>14114.8812454384</v>
@@ -5703,7 +5817,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>14420.9092963267</v>
@@ -5717,7 +5831,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>14725.9520191691</v>
@@ -5731,7 +5845,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>15070.9966872543</v>
@@ -5745,7 +5859,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>15416.0404273514</v>
@@ -5759,7 +5873,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>15745.1013055427</v>
@@ -5773,7 +5887,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>16074.1557465435</v>
@@ -5787,7 +5901,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>16380.1711006276</v>
@@ -5801,7 +5915,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>16709.2401177185</v>
@@ -5815,7 +5929,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>17038.2939934503</v>
@@ -5829,7 +5943,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>17367.3377740445</v>
@@ -5843,7 +5957,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>17696.3970948532</v>
@@ -5857,7 +5971,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <v>18002.3994162994</v>
@@ -5871,7 +5985,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>18308.4539532451</v>
@@ -5885,7 +5999,7 @@
     </row>
     <row r="59" spans="1:28">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>18982.54231982</v>
@@ -5897,7 +6011,7 @@
         <v>16.9797997828007</v>
       </c>
       <c r="Y59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z59">
         <v>18982.54231982</v>
@@ -5911,7 +6025,7 @@
     </row>
     <row r="60" spans="1:28">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60">
         <v>19311.5971189505</v>
@@ -5923,7 +6037,7 @@
         <v>17.1020295754751</v>
       </c>
       <c r="Y60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Z60">
         <v>19311.5971189505</v>
@@ -5937,7 +6051,7 @@
     </row>
     <row r="61" spans="1:28">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>19616.6392019269</v>
@@ -5949,7 +6063,7 @@
         <v>17.0386397158782</v>
       </c>
       <c r="Y61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z61">
         <v>19616.6392019269</v>
@@ -5963,7 +6077,7 @@
     </row>
     <row r="62" spans="1:28">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>19961.6878592127</v>
@@ -5975,7 +6089,7 @@
         <v>17.0703371898015</v>
       </c>
       <c r="Y62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z62">
         <v>19961.6878592127</v>
@@ -5989,7 +6103,7 @@
     </row>
     <row r="63" spans="1:28">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>20290.7287192207</v>
@@ -6001,7 +6115,7 @@
         <v>17.2197548842112</v>
       </c>
       <c r="Y63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z63">
         <v>20290.7287192207</v>
@@ -6015,7 +6129,7 @@
     </row>
     <row r="64" spans="1:28">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>20596.753534117</v>
@@ -6027,7 +6141,7 @@
         <v>17.1925830081781</v>
       </c>
       <c r="Y64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z64">
         <v>20596.753534117</v>
@@ -6041,7 +6155,7 @@
     </row>
     <row r="65" spans="1:28">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>20925.8273107739</v>
@@ -6053,7 +6167,7 @@
         <v>17.3103569006602</v>
       </c>
       <c r="Y65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z65">
         <v>20925.8273107739</v>
@@ -6067,7 +6181,7 @@
     </row>
     <row r="66" spans="1:28">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>21254.8573916871</v>
@@ -6079,7 +6193,7 @@
         <v>17.3692405994415</v>
       </c>
       <c r="Y66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z66">
         <v>21254.8573916871</v>
@@ -6093,7 +6207,7 @@
     </row>
     <row r="67" spans="1:28">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>21583.9133424913</v>
@@ -6105,7 +6219,7 @@
         <v>17.4598748759111</v>
       </c>
       <c r="Y67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z67">
         <v>21583.9133424913</v>
@@ -6119,7 +6233,7 @@
     </row>
     <row r="68" spans="1:28">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>21928.9746105746</v>
@@ -6131,7 +6245,7 @@
         <v>17.4281518077532</v>
       </c>
       <c r="Y68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z68">
         <v>21928.9746105746</v>
@@ -6145,7 +6259,7 @@
     </row>
     <row r="69" spans="1:28">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>22258.0253526228</v>
@@ -6157,7 +6271,7 @@
         <v>17.5187710419973</v>
       </c>
       <c r="Y69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z69">
         <v>22258.0253526228</v>
@@ -6171,7 +6285,7 @@
     </row>
     <row r="70" spans="1:28">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>22564.0182161182</v>
@@ -6183,7 +6297,7 @@
         <v>17.4915839250565</v>
       </c>
       <c r="Y70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z70">
         <v>22564.0182161182</v>
@@ -6197,7 +6311,7 @@
     </row>
     <row r="71" spans="1:28">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>22869.1002144969</v>
@@ -6209,7 +6323,7 @@
         <v>17.5187710419973</v>
       </c>
       <c r="Y71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z71">
         <v>22869.1002144969</v>
@@ -6223,7 +6337,7 @@
     </row>
     <row r="72" spans="1:28">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72">
         <v>23214.1262783233</v>
@@ -6235,7 +6349,7 @@
         <v>17.5822336093267</v>
       </c>
       <c r="Y72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Z72">
         <v>23214.1262783233</v>
@@ -6266,32 +6380,32 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1505.22714169319</v>
@@ -6305,7 +6419,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>1850.27356978768</v>
@@ -6319,7 +6433,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>2156.29948050156</v>
@@ -6333,7 +6447,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2501.34755923852</v>
@@ -6353,7 +6467,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>3151.43561388501</v>
@@ -6367,7 +6481,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>3457.45935444331</v>
@@ -6381,7 +6495,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>3802.5098170258</v>
@@ -6397,7 +6511,7 @@
         <v>56.9182644846996</v>
       </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H12">
         <v>3859.4280815105</v>
@@ -6411,7 +6525,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>4131.56255391866</v>
@@ -6427,7 +6541,7 @@
         <v>56.9211849263293</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H13">
         <v>4188.48373884499</v>
@@ -6441,7 +6555,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14">
         <v>4476.61107037871</v>
@@ -6457,7 +6571,7 @@
         <v>56.9195143311799</v>
       </c>
       <c r="G14" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H14">
         <v>4533.53058470989</v>
@@ -6471,7 +6585,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15">
         <v>4781.65147297701</v>
@@ -6487,7 +6601,7 @@
         <v>56.9183297782101</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H15">
         <v>4838.56980275522</v>
@@ -6501,7 +6615,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>5086.69350961885</v>
@@ -6517,7 +6631,7 @@
         <v>56.9168207777302</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16">
         <v>5143.61033039658</v>
@@ -6531,7 +6645,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17">
         <v>5415.74525981049</v>
@@ -6547,7 +6661,7 @@
         <v>56.9173757584895</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>5472.66263556898</v>
@@ -6561,7 +6675,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18">
         <v>5720.787082709</v>
@@ -6577,7 +6691,7 @@
         <v>56.9194336760702</v>
       </c>
       <c r="G18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H18">
         <v>5777.70651638507</v>
@@ -6591,7 +6705,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B19">
         <v>6065.83514494977</v>
@@ -6607,7 +6721,7 @@
         <v>17.9524768226993</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H19">
         <v>6083.78762177247</v>
@@ -6621,7 +6735,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>6410.88182188263</v>
@@ -6637,7 +6751,7 @@
         <v>17.9622535237104</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H20">
         <v>6428.84407540634</v>
@@ -6651,7 +6765,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>6716.90695347615</v>
@@ -6667,7 +6781,7 @@
         <v>40.9941205693194</v>
       </c>
       <c r="G21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21">
         <v>6757.90107404547</v>
@@ -6681,7 +6795,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>7061.95402074302</v>
@@ -6697,7 +6811,7 @@
         <v>24.9834397906998</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H22">
         <v>7086.93746053372</v>
@@ -6711,7 +6825,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B23">
         <v>7391.00554817822</v>
@@ -6727,7 +6841,7 @@
         <v>24.9889953757502</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H23">
         <v>7415.99454355397</v>
@@ -6741,7 +6855,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B24">
         <v>7720.0556766764</v>
@@ -6757,7 +6871,7 @@
         <v>0.976381659929757</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H24">
         <v>7721.03205833633</v>
@@ -6771,7 +6885,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B25">
         <v>8049.10700583822</v>
@@ -6787,7 +6901,7 @@
         <v>16.9721865538695</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H25">
         <v>8066.07919239209</v>
@@ -6801,7 +6915,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>8378.15510102445</v>
@@ -6817,7 +6931,7 @@
         <v>-6.04226915938852</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26">
         <v>8372.11283186506</v>
@@ -6831,7 +6945,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>8707.20410630778</v>
@@ -6847,7 +6961,7 @@
         <v>-29.06257654814</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H27">
         <v>8678.14152975964</v>
@@ -6861,7 +6975,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B28">
         <v>9052.24839872956</v>
@@ -6877,7 +6991,7 @@
         <v>-45.06249716192</v>
       </c>
       <c r="G28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H28">
         <v>9007.18590156764</v>
@@ -6891,7 +7005,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29">
         <v>9358.27878063925</v>
@@ -6907,7 +7021,7 @@
         <v>-22.0419892738792</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H29">
         <v>9336.23679136537</v>
@@ -6921,7 +7035,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B30">
         <v>9664.3105902631</v>
@@ -6937,7 +7051,7 @@
         <v>0.978823408800963</v>
       </c>
       <c r="G30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H30">
         <v>9665.2894136719</v>
@@ -6951,7 +7065,7 @@
     </row>
     <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B31">
         <v>9969.35391779908</v>
@@ -6967,7 +7081,7 @@
         <v>40.9860821430193</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H31">
         <v>10010.3399999421</v>
@@ -6983,7 +7097,7 @@
         <v>87.9912553821196</v>
       </c>
       <c r="M31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>10057.3451731812</v>
@@ -6997,7 +7111,7 @@
     </row>
     <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>10298.4094355714</v>
@@ -7013,7 +7127,7 @@
         <v>56.9239519630992</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H32">
         <v>10355.3333875345</v>
@@ -7029,7 +7143,7 @@
         <v>103.9853904875</v>
       </c>
       <c r="M32" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N32">
         <v>10402.3948260589</v>
@@ -7043,7 +7157,7 @@
     </row>
     <row r="33" spans="1:16">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B33">
         <v>10627.4556082337</v>
@@ -7059,7 +7173,7 @@
         <v>79.9478749710997</v>
       </c>
       <c r="M33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N33">
         <v>10707.4034832048</v>
@@ -7073,7 +7187,7 @@
     </row>
     <row r="34" spans="1:16">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>10932.5058035342</v>
@@ -7089,7 +7203,7 @@
         <v>80.9575784717999</v>
       </c>
       <c r="M34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N34">
         <v>11013.463382006</v>
@@ -7103,7 +7217,7 @@
     </row>
     <row r="35" spans="1:16">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B35">
         <v>11238.5304445354</v>
@@ -7119,7 +7233,7 @@
         <v>80.9617390808999</v>
       </c>
       <c r="M35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N35">
         <v>11319.4921836163</v>
@@ -7133,7 +7247,7 @@
     </row>
     <row r="36" spans="1:16">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>11567.583608482</v>
@@ -7149,7 +7263,7 @@
         <v>56.9143292203989</v>
       </c>
       <c r="M36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N36">
         <v>11624.4979377024</v>
@@ -7163,7 +7277,7 @@
     </row>
     <row r="37" spans="1:16">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>11873.603056273</v>
@@ -7179,7 +7293,7 @@
         <v>56.9389844712005</v>
       </c>
       <c r="M37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <v>11930.5420407442</v>
@@ -7193,7 +7307,7 @@
     </row>
     <row r="38" spans="1:16">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B38">
         <v>12179.6311737614</v>
@@ -7209,7 +7323,7 @@
         <v>56.9430886199007</v>
       </c>
       <c r="M38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N38">
         <v>12236.5742623813</v>
@@ -7223,7 +7337,7 @@
     </row>
     <row r="39" spans="1:16">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>12524.6831161055</v>
@@ -7239,7 +7353,7 @@
         <v>56.9466805450011</v>
       </c>
       <c r="M39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N39">
         <v>12581.6297966505</v>
@@ -7253,7 +7367,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>12829.7168563275</v>
@@ -7269,7 +7383,7 @@
         <v>56.9515338151996</v>
       </c>
       <c r="M40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N40">
         <v>12886.6683901427</v>
@@ -7283,7 +7397,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>13134.7615879371</v>
@@ -7297,7 +7411,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B42">
         <v>13440.7868363556</v>
@@ -7311,7 +7425,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>13785.8319667339</v>
@@ -7325,7 +7439,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B44">
         <v>14114.8812454384</v>
@@ -7339,7 +7453,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>14420.9092963267</v>
@@ -7353,7 +7467,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B46">
         <v>14725.9520191691</v>
@@ -7367,7 +7481,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>15070.9966872543</v>
@@ -7381,7 +7495,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B48">
         <v>15416.0404273514</v>
@@ -7395,7 +7509,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>15745.1013055427</v>
@@ -7409,7 +7523,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B50">
         <v>16074.1557465435</v>
@@ -7423,7 +7537,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B51">
         <v>16380.1711006276</v>
@@ -7437,7 +7551,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>16709.2401177185</v>
@@ -7451,7 +7565,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <v>17038.2939934503</v>
@@ -7465,7 +7579,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B54">
         <v>17367.3377740445</v>
@@ -7479,7 +7593,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B55">
         <v>17696.3970948532</v>
@@ -7493,7 +7607,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <v>18002.3994162994</v>
@@ -7507,7 +7621,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B57">
         <v>18308.4539532451</v>
@@ -7521,7 +7635,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B59">
         <v>18982.54231982</v>
@@ -7535,7 +7649,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B60">
         <v>19311.5971189505</v>
@@ -7549,7 +7663,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>19616.6392019269</v>
@@ -7563,7 +7677,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>19961.6878592127</v>
@@ -7577,7 +7691,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B63">
         <v>20290.7287192207</v>
@@ -7591,7 +7705,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>20596.753534117</v>
@@ -7605,7 +7719,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>20925.8273107739</v>
@@ -7619,7 +7733,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B66">
         <v>21254.8573916871</v>
@@ -7633,7 +7747,7 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B67">
         <v>21583.9133424913</v>
@@ -7647,7 +7761,7 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B68">
         <v>21928.9746105746</v>
@@ -7661,7 +7775,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>22258.0253526228</v>
@@ -7675,7 +7789,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B70">
         <v>22564.0182161182</v>
@@ -7689,7 +7803,7 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B71">
         <v>22869.1002144969</v>
@@ -7703,7 +7817,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B72">
         <v>23214.1262783233</v>
@@ -7734,35 +7848,35 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="G1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -7781,7 +7895,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1669.23827394601</v>
@@ -7795,7 +7909,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2014.28492835928</v>
@@ -7809,7 +7923,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>2343.33763754478</v>
@@ -7823,7 +7937,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>2667.37226926441</v>
@@ -7837,7 +7951,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>3012.4250787255</v>
@@ -7851,7 +7965,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>3357.47023417175</v>
@@ -7865,7 +7979,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>3662.51219453175</v>
@@ -7879,7 +7993,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <v>3967.5505418653</v>
@@ -7893,7 +8007,7 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>4312.60068740096</v>
@@ -7909,7 +8023,7 @@
         <v>21.9792172053203</v>
       </c>
       <c r="L13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M13">
         <v>4334.57990460628</v>
@@ -7923,7 +8037,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>4641.65287025056</v>
@@ -7939,7 +8053,7 @@
         <v>21.9791725765299</v>
       </c>
       <c r="L14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M14">
         <v>4663.63204282709</v>
@@ -7953,7 +8067,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>4986.69856468201</v>
@@ -7969,7 +8083,7 @@
         <v>21.9780205955094</v>
       </c>
       <c r="L15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M15">
         <v>5008.67658527752</v>
@@ -7983,7 +8097,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>5292.7245346745</v>
@@ -7999,7 +8113,7 @@
         <v>21.9771683921399</v>
       </c>
       <c r="L16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M16">
         <v>5314.70170306664</v>
@@ -8013,7 +8127,7 @@
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>5637.77317654352</v>
@@ -8029,7 +8143,7 @@
         <v>21.9762181724</v>
       </c>
       <c r="L17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>5659.74939471592</v>
@@ -8043,7 +8157,7 @@
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B18">
         <v>5982.81819500455</v>
@@ -8059,7 +8173,7 @@
         <v>21.9718776961899</v>
       </c>
       <c r="L18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M18">
         <v>6004.79007270074</v>
@@ -8073,7 +8187,7 @@
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B19">
         <v>6288.84513829139</v>
@@ -8089,7 +8203,7 @@
         <v>21.9726634365497</v>
       </c>
       <c r="L19" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M19">
         <v>6310.81780172794</v>
@@ -8103,7 +8217,7 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20">
         <v>6593.88707098509</v>
@@ -8119,7 +8233,7 @@
         <v>21.9758753013803</v>
       </c>
       <c r="L20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>6615.86294628647</v>
@@ -8133,7 +8247,7 @@
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21">
         <v>6938.93299127687</v>
@@ -8149,7 +8263,7 @@
         <v>21.9794412373303</v>
       </c>
       <c r="L21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M21">
         <v>6960.9124325142</v>
@@ -8163,7 +8277,7 @@
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B22">
         <v>7244.96190139495</v>
@@ -8179,7 +8293,7 @@
         <v>21.9759844811606</v>
       </c>
       <c r="L22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M22">
         <v>7266.93788587611</v>
@@ -8193,7 +8307,7 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B23">
         <v>7550.98706480163</v>
@@ -8209,7 +8323,7 @@
         <v>21.97965549946</v>
       </c>
       <c r="L23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M23">
         <v>7572.96672030109</v>
@@ -8223,7 +8337,7 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B24">
         <v>7857.01026665949</v>
@@ -8239,7 +8353,7 @@
         <v>21.9803773366493</v>
       </c>
       <c r="L24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M24">
         <v>7878.99064399614</v>
@@ -8253,7 +8367,7 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B25">
         <v>8163.04055515502</v>
@@ -8269,7 +8383,7 @@
         <v>21.9806034682297</v>
       </c>
       <c r="L25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M25">
         <v>8185.02115862325</v>
@@ -8283,7 +8397,7 @@
     </row>
     <row r="26" spans="1:15">
       <c r="A26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>8492.08524994195</v>
@@ -8299,7 +8413,7 @@
         <v>-1.08012302209136</v>
       </c>
       <c r="L26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M26">
         <v>8491.00512691986</v>
@@ -8313,7 +8427,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B27">
         <v>8837.13663412371</v>
@@ -8327,7 +8441,7 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B28">
         <v>9166.185978893</v>
@@ -8341,7 +8455,7 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29">
         <v>9511.23401211689</v>
@@ -8355,7 +8469,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B30">
         <v>9816.27702548157</v>
@@ -8369,7 +8483,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B31">
         <v>10122.3012987838</v>
@@ -8383,7 +8497,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B32">
         <v>10451.3494832797</v>
@@ -8397,7 +8511,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33">
         <v>10796.3945032075</v>
@@ -8411,7 +8525,7 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B34">
         <v>11125.4500767993</v>
@@ -8425,7 +8539,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B35">
         <v>11436.4947419693</v>
@@ -8439,7 +8553,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <v>11783.5586549682</v>
@@ -8451,7 +8565,7 @@
         <v>14.5515252407074</v>
       </c>
       <c r="G36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H36">
         <v>11783.5586549682</v>
@@ -8465,7 +8579,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B37">
         <v>12089.579303199</v>
@@ -8477,7 +8591,7 @@
         <v>14.6418989157359</v>
       </c>
       <c r="G37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H37">
         <v>12089.579303199</v>
@@ -8491,7 +8605,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B38">
         <v>12418.625761424</v>
@@ -8503,7 +8617,7 @@
         <v>14.8498154755116</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H38">
         <v>12418.625761424</v>
@@ -8517,7 +8631,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B39">
         <v>12763.6834731489</v>
@@ -8529,7 +8643,7 @@
         <v>14.9402156169891</v>
       </c>
       <c r="G39" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H39">
         <v>12763.6834731489</v>
@@ -8543,7 +8657,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B40">
         <v>13068.7241349547</v>
@@ -8555,7 +8669,7 @@
         <v>14.9989734327475</v>
       </c>
       <c r="G40" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H40">
         <v>13068.7241349547</v>
@@ -8569,7 +8683,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>13397.7786864535</v>
@@ -8581,7 +8695,7 @@
         <v>15.2114277418137</v>
       </c>
       <c r="G41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H41">
         <v>13397.7786864535</v>
@@ -8595,7 +8709,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B42">
         <v>13726.8264559658</v>
@@ -8607,7 +8721,7 @@
         <v>15.3289738670667</v>
       </c>
       <c r="G42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H42">
         <v>13726.8264559658</v>
@@ -8621,7 +8735,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <v>14071.8838850621</v>
@@ -8633,7 +8747,7 @@
         <v>15.4193835313797</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H43">
         <v>14071.8838850621</v>
@@ -8647,7 +8761,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B44">
         <v>14377.9087039575</v>
@@ -8659,7 +8773,7 @@
         <v>15.4826778665861</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H44">
         <v>14377.9087039575</v>
@@ -8673,7 +8787,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B45">
         <v>14683.9239008763</v>
@@ -8685,7 +8799,7 @@
         <v>15.5369226987839</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H45">
         <v>14683.9239008763</v>
@@ -8699,7 +8813,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B46">
         <v>15012.9790035782</v>
@@ -8711,7 +8825,7 @@
         <v>15.6906390086492</v>
       </c>
       <c r="G46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H46">
         <v>15012.9790035782</v>
@@ -8725,7 +8839,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>15342.038035285</v>
@@ -8737,7 +8851,7 @@
         <v>15.8398406084061</v>
       </c>
       <c r="G47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H47">
         <v>15342.038035285</v>
@@ -8751,7 +8865,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B48">
         <v>15671.0671561733</v>
@@ -8763,7 +8877,7 @@
         <v>15.9619229749521</v>
       </c>
       <c r="G48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H48">
         <v>15671.0671561733</v>
@@ -8777,7 +8891,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B49">
         <v>16000.1378663256</v>
@@ -8789,7 +8903,7 @@
         <v>16.0794888750394</v>
       </c>
       <c r="G49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H49">
         <v>16000.1378663256</v>
@@ -8803,7 +8917,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B50">
         <v>16306.1693161771</v>
@@ -8815,7 +8929,7 @@
         <v>16.1111437236945</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H50">
         <v>16306.1693161771</v>
@@ -8829,7 +8943,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B51">
         <v>16635.2080478003</v>
@@ -8841,7 +8955,7 @@
         <v>16.2603708660285</v>
       </c>
       <c r="G51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H51">
         <v>16635.2080478003</v>
@@ -8855,7 +8969,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B52">
         <v>16964.2627391411</v>
@@ -8867,7 +8981,7 @@
         <v>16.3508305008888</v>
       </c>
       <c r="G52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H52">
         <v>16964.2627391411</v>
@@ -8881,7 +8995,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B53">
         <v>17309.2981348257</v>
@@ -8893,7 +9007,7 @@
         <v>16.377977033027</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H53">
         <v>17309.2981348257</v>
@@ -8907,7 +9021,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B54">
         <v>17654.3552394374</v>
@@ -8919,7 +9033,7 @@
         <v>16.4413115576585</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H54">
         <v>17654.3552394374</v>
@@ -8933,7 +9047,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B55">
         <v>17959.3797253688</v>
@@ -8945,7 +9059,7 @@
         <v>16.5001396095435</v>
       </c>
       <c r="G55" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H55">
         <v>17959.3797253688</v>
@@ -8959,7 +9073,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56">
         <v>18265.3947544255</v>
@@ -8971,7 +9085,7 @@
         <v>16.531815466849</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H56">
         <v>18265.3947544255</v>
@@ -8985,7 +9099,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B57">
         <v>18594.4799846249</v>
@@ -8997,7 +9111,7 @@
         <v>16.6494468585332</v>
       </c>
       <c r="G57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H57">
         <v>18594.4799846249</v>
@@ -9011,7 +9125,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B58">
         <v>18939.5151693103</v>
@@ -9023,7 +9137,7 @@
         <v>16.6811211243947</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H58">
         <v>18939.5151693103</v>
@@ -9037,7 +9151,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B59">
         <v>19245.5281875652</v>
@@ -9049,7 +9163,7 @@
         <v>16.7127896324476</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H59">
         <v>19245.5281875652</v>
@@ -9063,7 +9177,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>19550.6057072875</v>
@@ -9075,7 +9189,7 @@
         <v>16.767093258667</v>
       </c>
       <c r="G60" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H60">
         <v>19550.6057072875</v>
@@ -9089,7 +9203,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B61">
         <v>19855.6338354727</v>
@@ -9101,7 +9215,7 @@
         <v>16.8032934323629</v>
       </c>
       <c r="G61" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H61">
         <v>19855.6338354727</v>
@@ -9115,7 +9229,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B62">
         <v>20200.6714803979</v>
@@ -9127,7 +9241,7 @@
         <v>16.8575977579435</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H62">
         <v>20200.6714803979</v>
@@ -9141,7 +9255,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B63">
         <v>20506.6830204068</v>
@@ -9153,7 +9267,7 @@
         <v>16.8575977579435</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H63">
         <v>20506.6830204068</v>
@@ -9167,7 +9281,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B64">
         <v>20812.7144510212</v>
@@ -9179,7 +9293,7 @@
         <v>16.889276374944</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H64">
         <v>20812.7144510212</v>
@@ -9193,7 +9307,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B65">
         <v>21141.797752076</v>
@@ -9205,7 +9319,7 @@
         <v>16.9797997828007</v>
       </c>
       <c r="G65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H65">
         <v>21141.797752076</v>
@@ -9219,7 +9333,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B66">
         <v>21447.8074381648</v>
@@ -9231,7 +9345,7 @@
         <v>16.9797997828007</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H66">
         <v>21447.8074381648</v>
@@ -9245,7 +9359,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B67">
         <v>21752.8442495698</v>
@@ -9257,7 +9371,7 @@
         <v>17.0114813502312</v>
       </c>
       <c r="G67" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H67">
         <v>21752.8442495698</v>
@@ -9271,7 +9385,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B68">
         <v>22081.8780776365</v>
@@ -9283,7 +9397,7 @@
         <v>17.1020295754751</v>
       </c>
       <c r="G68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H68">
         <v>22081.8780776365</v>
@@ -9297,7 +9411,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B69">
         <v>22410.9423567912</v>
@@ -9309,7 +9423,7 @@
         <v>17.1291962678909</v>
       </c>
       <c r="G69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H69">
         <v>22410.9423567912</v>
@@ -9323,7 +9437,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B70">
         <v>22716.0067606761</v>
@@ -9335,7 +9449,7 @@
         <v>17.1608877495607</v>
       </c>
       <c r="G70" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H70">
         <v>22716.0067606761</v>
@@ -9349,7 +9463,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B71">
         <v>23021.9859869987</v>
@@ -9361,7 +9475,7 @@
         <v>17.1608877495607</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H71">
         <v>23021.9859869987</v>
@@ -9375,7 +9489,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B72">
         <v>23328.0301927488</v>
@@ -9387,7 +9501,7 @@
         <v>17.1925830081781</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H72">
         <v>23328.0301927488</v>
